--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Il11ra1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H2">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I2">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J2">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.63128545188865</v>
+        <v>1.960874666666667</v>
       </c>
       <c r="N2">
-        <v>1.63128545188865</v>
+        <v>5.882624</v>
       </c>
       <c r="O2">
-        <v>0.03970755881087976</v>
+        <v>0.04651802468442268</v>
       </c>
       <c r="P2">
-        <v>0.03970755881087976</v>
+        <v>0.04651802468442268</v>
       </c>
       <c r="Q2">
-        <v>0.3073318885394594</v>
+        <v>0.4832797848462221</v>
       </c>
       <c r="R2">
-        <v>0.3073318885394594</v>
+        <v>4.349518063615999</v>
       </c>
       <c r="S2">
-        <v>0.001715564752922708</v>
+        <v>0.002363119087820565</v>
       </c>
       <c r="T2">
-        <v>0.001715564752922708</v>
+        <v>0.002363119087820565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H3">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I3">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J3">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.5840899159954</v>
+        <v>26.83766366666667</v>
       </c>
       <c r="N3">
-        <v>26.5840899159954</v>
+        <v>80.512991</v>
       </c>
       <c r="O3">
-        <v>0.6470904969764645</v>
+        <v>0.6366725635965687</v>
       </c>
       <c r="P3">
-        <v>0.6470904969764645</v>
+        <v>0.6366725635965687</v>
       </c>
       <c r="Q3">
-        <v>5.008405211685386</v>
+        <v>6.614446370838222</v>
       </c>
       <c r="R3">
-        <v>5.008405211685386</v>
+        <v>59.530017337544</v>
       </c>
       <c r="S3">
-        <v>0.02795753961736598</v>
+        <v>0.03234301322838674</v>
       </c>
       <c r="T3">
-        <v>0.02795753961736598</v>
+        <v>0.03234301322838674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H4">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I4">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J4">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.07255884207158</v>
+        <v>3.28669</v>
       </c>
       <c r="N4">
-        <v>3.07255884207158</v>
+        <v>9.86007</v>
       </c>
       <c r="O4">
-        <v>0.074789982820109</v>
+        <v>0.07797047366109675</v>
       </c>
       <c r="P4">
-        <v>0.074789982820109</v>
+        <v>0.07797047366109675</v>
       </c>
       <c r="Q4">
-        <v>0.5788657714621304</v>
+        <v>0.8100419996533332</v>
       </c>
       <c r="R4">
-        <v>0.5788657714621304</v>
+        <v>7.290377996879999</v>
       </c>
       <c r="S4">
-        <v>0.003231300594654488</v>
+        <v>0.003960905817581902</v>
       </c>
       <c r="T4">
-        <v>0.003231300594654488</v>
+        <v>0.003960905817581902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H5">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I5">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J5">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.25264545630351</v>
+        <v>5.278769333333333</v>
       </c>
       <c r="N5">
-        <v>5.25264545630351</v>
+        <v>15.836308</v>
       </c>
       <c r="O5">
-        <v>0.1278560586238274</v>
+        <v>0.1252287697554901</v>
       </c>
       <c r="P5">
-        <v>0.1278560586238274</v>
+        <v>0.1252287697554901</v>
       </c>
       <c r="Q5">
-        <v>0.9895910283788635</v>
+        <v>1.301012528252444</v>
       </c>
       <c r="R5">
-        <v>0.9895910283788635</v>
+        <v>11.709112754272</v>
       </c>
       <c r="S5">
-        <v>0.005524019964746804</v>
+        <v>0.006361630747674083</v>
       </c>
       <c r="T5">
-        <v>0.005524019964746804</v>
+        <v>0.006361630747674083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H6">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I6">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J6">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.01621944421642</v>
+        <v>3.06676</v>
       </c>
       <c r="N6">
-        <v>3.01621944421642</v>
+        <v>9.200279999999999</v>
       </c>
       <c r="O6">
-        <v>0.07341861035362053</v>
+        <v>0.07275305240375728</v>
       </c>
       <c r="P6">
-        <v>0.07341861035362053</v>
+        <v>0.07275305240375728</v>
       </c>
       <c r="Q6">
-        <v>0.5682515080161126</v>
+        <v>0.7558377586133332</v>
       </c>
       <c r="R6">
-        <v>0.5682515080161126</v>
+        <v>6.802539827519999</v>
       </c>
       <c r="S6">
-        <v>0.003172050458481633</v>
+        <v>0.003695860432571211</v>
       </c>
       <c r="T6">
-        <v>0.003172050458481633</v>
+        <v>0.003695860432571211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H7">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I7">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J7">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.5256925042364</v>
+        <v>1.722250333333333</v>
       </c>
       <c r="N7">
-        <v>1.5256925042364</v>
+        <v>5.166751000000001</v>
       </c>
       <c r="O7">
-        <v>0.03713729241509874</v>
+        <v>0.04085711589866454</v>
       </c>
       <c r="P7">
-        <v>0.03713729241509874</v>
+        <v>0.04085711589866454</v>
       </c>
       <c r="Q7">
-        <v>0.2874383254718539</v>
+        <v>0.4244681134871111</v>
       </c>
       <c r="R7">
-        <v>0.2874383254718539</v>
+        <v>3.820213021384</v>
       </c>
       <c r="S7">
-        <v>0.001604516414362659</v>
+        <v>0.002075544503628992</v>
       </c>
       <c r="T7">
-        <v>0.001604516414362659</v>
+        <v>0.002075544503628992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H8">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I8">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J8">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.63128545188865</v>
+        <v>1.960874666666667</v>
       </c>
       <c r="N8">
-        <v>1.63128545188865</v>
+        <v>5.882624</v>
       </c>
       <c r="O8">
-        <v>0.03970755881087976</v>
+        <v>0.04651802468442268</v>
       </c>
       <c r="P8">
-        <v>0.03970755881087976</v>
+        <v>0.04651802468442268</v>
       </c>
       <c r="Q8">
-        <v>5.756528169999805</v>
+        <v>7.315722060259556</v>
       </c>
       <c r="R8">
-        <v>5.756528169999805</v>
+        <v>65.841498542336</v>
       </c>
       <c r="S8">
-        <v>0.03213365484001946</v>
+        <v>0.03577207858443799</v>
       </c>
       <c r="T8">
-        <v>0.03213365484001946</v>
+        <v>0.03577207858443799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H9">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I9">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J9">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.5840899159954</v>
+        <v>26.83766366666667</v>
       </c>
       <c r="N9">
-        <v>26.5840899159954</v>
+        <v>80.512991</v>
       </c>
       <c r="O9">
-        <v>0.6470904969764645</v>
+        <v>0.6366725635965687</v>
       </c>
       <c r="P9">
-        <v>0.6470904969764645</v>
+        <v>0.6366725635965687</v>
       </c>
       <c r="Q9">
-        <v>93.81071982102192</v>
+        <v>100.1271990860166</v>
       </c>
       <c r="R9">
-        <v>93.81071982102192</v>
+        <v>901.144791774149</v>
       </c>
       <c r="S9">
-        <v>0.5236630833724545</v>
+        <v>0.4895973363451665</v>
       </c>
       <c r="T9">
-        <v>0.5236630833724545</v>
+        <v>0.4895973363451665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H10">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I10">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J10">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.07255884207158</v>
+        <v>3.28669</v>
       </c>
       <c r="N10">
-        <v>3.07255884207158</v>
+        <v>9.86007</v>
       </c>
       <c r="O10">
-        <v>0.074789982820109</v>
+        <v>0.07797047366109675</v>
       </c>
       <c r="P10">
-        <v>0.074789982820109</v>
+        <v>0.07797047366109675</v>
       </c>
       <c r="Q10">
-        <v>10.84253617776661</v>
+        <v>12.26213533530333</v>
       </c>
       <c r="R10">
-        <v>10.84253617776661</v>
+        <v>110.35921801773</v>
       </c>
       <c r="S10">
-        <v>0.06052438289844898</v>
+        <v>0.05995882090850266</v>
       </c>
       <c r="T10">
-        <v>0.06052438289844898</v>
+        <v>0.05995882090850266</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H11">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I11">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J11">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.25264545630351</v>
+        <v>5.278769333333333</v>
       </c>
       <c r="N11">
-        <v>5.25264545630351</v>
+        <v>15.836308</v>
       </c>
       <c r="O11">
-        <v>0.1278560586238274</v>
+        <v>0.1252287697554901</v>
       </c>
       <c r="P11">
-        <v>0.1278560586238274</v>
+        <v>0.1252287697554901</v>
       </c>
       <c r="Q11">
-        <v>18.53569006039084</v>
+        <v>19.69427721177911</v>
       </c>
       <c r="R11">
-        <v>18.53569006039084</v>
+        <v>177.248494906012</v>
       </c>
       <c r="S11">
-        <v>0.1034685228722157</v>
+        <v>0.09630016371322797</v>
       </c>
       <c r="T11">
-        <v>0.1034685228722157</v>
+        <v>0.09630016371322797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H12">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I12">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J12">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.01621944421642</v>
+        <v>3.06676</v>
       </c>
       <c r="N12">
-        <v>3.01621944421642</v>
+        <v>9.200279999999999</v>
       </c>
       <c r="O12">
-        <v>0.07341861035362053</v>
+        <v>0.07275305240375728</v>
       </c>
       <c r="P12">
-        <v>0.07341861035362053</v>
+        <v>0.07275305240375728</v>
       </c>
       <c r="Q12">
-        <v>10.64372405052145</v>
+        <v>11.44161030121333</v>
       </c>
       <c r="R12">
-        <v>10.64372405052145</v>
+        <v>102.97449271092</v>
       </c>
       <c r="S12">
-        <v>0.05941458892433107</v>
+        <v>0.05594665563510997</v>
       </c>
       <c r="T12">
-        <v>0.05941458892433107</v>
+        <v>0.05594665563510997</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H13">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I13">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J13">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.5256925042364</v>
+        <v>1.722250333333333</v>
       </c>
       <c r="N13">
-        <v>1.5256925042364</v>
+        <v>5.166751000000001</v>
       </c>
       <c r="O13">
-        <v>0.03713729241509874</v>
+        <v>0.04085711589866454</v>
       </c>
       <c r="P13">
-        <v>0.03713729241509874</v>
+        <v>0.04085711589866454</v>
       </c>
       <c r="Q13">
-        <v>5.383908664928057</v>
+        <v>6.425451341198778</v>
       </c>
       <c r="R13">
-        <v>5.383908664928057</v>
+        <v>57.82906207078901</v>
       </c>
       <c r="S13">
-        <v>0.03005364650703934</v>
+        <v>0.03141887409397976</v>
       </c>
       <c r="T13">
-        <v>0.03005364650703934</v>
+        <v>0.03141887409397976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.643346676769576</v>
+        <v>0.05783666666666667</v>
       </c>
       <c r="H14">
-        <v>0.643346676769576</v>
+        <v>0.17351</v>
       </c>
       <c r="I14">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="J14">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.63128545188865</v>
+        <v>1.960874666666667</v>
       </c>
       <c r="N14">
-        <v>1.63128545188865</v>
+        <v>5.882624</v>
       </c>
       <c r="O14">
-        <v>0.03970755881087976</v>
+        <v>0.04651802468442268</v>
       </c>
       <c r="P14">
-        <v>0.03970755881087976</v>
+        <v>0.04651802468442268</v>
       </c>
       <c r="Q14">
-        <v>1.049482074335119</v>
+        <v>0.1134104544711111</v>
       </c>
       <c r="R14">
-        <v>1.049482074335119</v>
+        <v>1.02069409024</v>
       </c>
       <c r="S14">
-        <v>0.00585833921793759</v>
+        <v>0.0005545491827355558</v>
       </c>
       <c r="T14">
-        <v>0.00585833921793759</v>
+        <v>0.0005545491827355558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.643346676769576</v>
+        <v>0.05783666666666667</v>
       </c>
       <c r="H15">
-        <v>0.643346676769576</v>
+        <v>0.17351</v>
       </c>
       <c r="I15">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="J15">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.5840899159954</v>
+        <v>26.83766366666667</v>
       </c>
       <c r="N15">
-        <v>26.5840899159954</v>
+        <v>80.512991</v>
       </c>
       <c r="O15">
-        <v>0.6470904969764645</v>
+        <v>0.6366725635965687</v>
       </c>
       <c r="P15">
-        <v>0.6470904969764645</v>
+        <v>0.6366725635965687</v>
       </c>
       <c r="Q15">
-        <v>17.10278590239924</v>
+        <v>1.552201007601111</v>
       </c>
       <c r="R15">
-        <v>17.10278590239924</v>
+        <v>13.96980906841</v>
       </c>
       <c r="S15">
-        <v>0.09546987398664401</v>
+        <v>0.00758988052927489</v>
       </c>
       <c r="T15">
-        <v>0.09546987398664401</v>
+        <v>0.007589880529274889</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.643346676769576</v>
+        <v>0.05783666666666667</v>
       </c>
       <c r="H16">
-        <v>0.643346676769576</v>
+        <v>0.17351</v>
       </c>
       <c r="I16">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="J16">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.07255884207158</v>
+        <v>3.28669</v>
       </c>
       <c r="N16">
-        <v>3.07255884207158</v>
+        <v>9.86007</v>
       </c>
       <c r="O16">
-        <v>0.074789982820109</v>
+        <v>0.07797047366109675</v>
       </c>
       <c r="P16">
-        <v>0.074789982820109</v>
+        <v>0.07797047366109675</v>
       </c>
       <c r="Q16">
-        <v>1.976720520225727</v>
+        <v>0.1900911939666667</v>
       </c>
       <c r="R16">
-        <v>1.976720520225727</v>
+        <v>1.7108207457</v>
       </c>
       <c r="S16">
-        <v>0.01103429932700553</v>
+        <v>0.0009294991079177206</v>
       </c>
       <c r="T16">
-        <v>0.01103429932700553</v>
+        <v>0.0009294991079177205</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.643346676769576</v>
+        <v>0.05783666666666667</v>
       </c>
       <c r="H17">
-        <v>0.643346676769576</v>
+        <v>0.17351</v>
       </c>
       <c r="I17">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="J17">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.25264545630351</v>
+        <v>5.278769333333333</v>
       </c>
       <c r="N17">
-        <v>5.25264545630351</v>
+        <v>15.836308</v>
       </c>
       <c r="O17">
-        <v>0.1278560586238274</v>
+        <v>0.1252287697554901</v>
       </c>
       <c r="P17">
-        <v>0.1278560586238274</v>
+        <v>0.1252287697554901</v>
       </c>
       <c r="Q17">
-        <v>3.379271998561676</v>
+        <v>0.3053064223422222</v>
       </c>
       <c r="R17">
-        <v>3.379271998561676</v>
+        <v>2.74775780108</v>
       </c>
       <c r="S17">
-        <v>0.01886351578686487</v>
+        <v>0.001492873190424638</v>
       </c>
       <c r="T17">
-        <v>0.01886351578686487</v>
+        <v>0.001492873190424637</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.643346676769576</v>
+        <v>0.05783666666666667</v>
       </c>
       <c r="H18">
-        <v>0.643346676769576</v>
+        <v>0.17351</v>
       </c>
       <c r="I18">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="J18">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.01621944421642</v>
+        <v>3.06676</v>
       </c>
       <c r="N18">
-        <v>3.01621944421642</v>
+        <v>9.200279999999999</v>
       </c>
       <c r="O18">
-        <v>0.07341861035362053</v>
+        <v>0.07275305240375728</v>
       </c>
       <c r="P18">
-        <v>0.07341861035362053</v>
+        <v>0.07275305240375728</v>
       </c>
       <c r="Q18">
-        <v>1.940474755844412</v>
+        <v>0.1773711758666667</v>
       </c>
       <c r="R18">
-        <v>1.940474755844412</v>
+        <v>1.5963405828</v>
       </c>
       <c r="S18">
-        <v>0.01083197097080782</v>
+        <v>0.000867301353093157</v>
       </c>
       <c r="T18">
-        <v>0.01083197097080782</v>
+        <v>0.0008673013530931569</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05783666666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.17351</v>
+      </c>
+      <c r="I19">
+        <v>0.0119211679020682</v>
+      </c>
+      <c r="J19">
+        <v>0.0119211679020682</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.722250333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.166751000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.04085711589866454</v>
+      </c>
+      <c r="P19">
+        <v>0.04085711589866454</v>
+      </c>
+      <c r="Q19">
+        <v>0.09960921844555556</v>
+      </c>
+      <c r="R19">
+        <v>0.8964829660100001</v>
+      </c>
+      <c r="S19">
+        <v>0.0004870645386222401</v>
+      </c>
+      <c r="T19">
+        <v>0.00048706453862224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.092656</v>
+      </c>
+      <c r="H20">
+        <v>0.277968</v>
+      </c>
+      <c r="I20">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J20">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.960874666666667</v>
+      </c>
+      <c r="N20">
+        <v>5.882624</v>
+      </c>
+      <c r="O20">
+        <v>0.04651802468442268</v>
+      </c>
+      <c r="P20">
+        <v>0.04651802468442268</v>
+      </c>
+      <c r="Q20">
+        <v>0.1816868031146667</v>
+      </c>
+      <c r="R20">
+        <v>1.635181228032</v>
+      </c>
+      <c r="S20">
+        <v>0.0008884037071444701</v>
+      </c>
+      <c r="T20">
+        <v>0.0008884037071444699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.092656</v>
+      </c>
+      <c r="H21">
+        <v>0.277968</v>
+      </c>
+      <c r="I21">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J21">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.83766366666667</v>
+      </c>
+      <c r="N21">
+        <v>80.512991</v>
+      </c>
+      <c r="O21">
+        <v>0.6366725635965687</v>
+      </c>
+      <c r="P21">
+        <v>0.6366725635965687</v>
+      </c>
+      <c r="Q21">
+        <v>2.486670564698667</v>
+      </c>
+      <c r="R21">
+        <v>22.380035082288</v>
+      </c>
+      <c r="S21">
+        <v>0.01215920644897402</v>
+      </c>
+      <c r="T21">
+        <v>0.01215920644897402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.092656</v>
+      </c>
+      <c r="H22">
+        <v>0.277968</v>
+      </c>
+      <c r="I22">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J22">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.28669</v>
+      </c>
+      <c r="N22">
+        <v>9.86007</v>
+      </c>
+      <c r="O22">
+        <v>0.07797047366109675</v>
+      </c>
+      <c r="P22">
+        <v>0.07797047366109675</v>
+      </c>
+      <c r="Q22">
+        <v>0.30453154864</v>
+      </c>
+      <c r="R22">
+        <v>2.74078393776</v>
+      </c>
+      <c r="S22">
+        <v>0.001489084248917486</v>
+      </c>
+      <c r="T22">
+        <v>0.001489084248917486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.092656</v>
+      </c>
+      <c r="H23">
+        <v>0.277968</v>
+      </c>
+      <c r="I23">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J23">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.278769333333333</v>
+      </c>
+      <c r="N23">
+        <v>15.836308</v>
+      </c>
+      <c r="O23">
+        <v>0.1252287697554901</v>
+      </c>
+      <c r="P23">
+        <v>0.1252287697554901</v>
+      </c>
+      <c r="Q23">
+        <v>0.4891096513493333</v>
+      </c>
+      <c r="R23">
+        <v>4.401986862144</v>
+      </c>
+      <c r="S23">
+        <v>0.002391625698783677</v>
+      </c>
+      <c r="T23">
+        <v>0.002391625698783676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.092656</v>
+      </c>
+      <c r="H24">
+        <v>0.277968</v>
+      </c>
+      <c r="I24">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J24">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.06676</v>
+      </c>
+      <c r="N24">
+        <v>9.200279999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.07275305240375728</v>
+      </c>
+      <c r="P24">
+        <v>0.07275305240375728</v>
+      </c>
+      <c r="Q24">
+        <v>0.28415371456</v>
+      </c>
+      <c r="R24">
+        <v>2.55738343104</v>
+      </c>
+      <c r="S24">
+        <v>0.001389441660518695</v>
+      </c>
+      <c r="T24">
+        <v>0.001389441660518694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.092656</v>
+      </c>
+      <c r="H25">
+        <v>0.277968</v>
+      </c>
+      <c r="I25">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J25">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.722250333333333</v>
+      </c>
+      <c r="N25">
+        <v>5.166751000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.04085711589866454</v>
+      </c>
+      <c r="P25">
+        <v>0.04085711589866454</v>
+      </c>
+      <c r="Q25">
+        <v>0.1595768268853333</v>
+      </c>
+      <c r="R25">
+        <v>1.436191441968</v>
+      </c>
+      <c r="S25">
+        <v>0.0007802913703633614</v>
+      </c>
+      <c r="T25">
+        <v>0.0007802913703633613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H26">
+        <v>2.171381</v>
+      </c>
+      <c r="I26">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J26">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.960874666666667</v>
+      </c>
+      <c r="N26">
+        <v>5.882624</v>
+      </c>
+      <c r="O26">
+        <v>0.04651802468442268</v>
+      </c>
+      <c r="P26">
+        <v>0.04651802468442268</v>
+      </c>
+      <c r="Q26">
+        <v>1.419268664860445</v>
+      </c>
+      <c r="R26">
+        <v>12.773417983744</v>
+      </c>
+      <c r="S26">
+        <v>0.0069398741222841</v>
+      </c>
+      <c r="T26">
+        <v>0.0069398741222841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H27">
+        <v>2.171381</v>
+      </c>
+      <c r="I27">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J27">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.83766366666667</v>
+      </c>
+      <c r="N27">
+        <v>80.512991</v>
+      </c>
+      <c r="O27">
+        <v>0.6366725635965687</v>
+      </c>
+      <c r="P27">
+        <v>0.6366725635965687</v>
+      </c>
+      <c r="Q27">
+        <v>19.42493099006345</v>
+      </c>
+      <c r="R27">
+        <v>174.824378910571</v>
+      </c>
+      <c r="S27">
+        <v>0.09498312704476654</v>
+      </c>
+      <c r="T27">
+        <v>0.09498312704476654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.643346676769576</v>
-      </c>
-      <c r="H19">
-        <v>0.643346676769576</v>
-      </c>
-      <c r="I19">
-        <v>0.1475371287829566</v>
-      </c>
-      <c r="J19">
-        <v>0.1475371287829566</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.5256925042364</v>
-      </c>
-      <c r="N19">
-        <v>1.5256925042364</v>
-      </c>
-      <c r="O19">
-        <v>0.03713729241509874</v>
-      </c>
-      <c r="P19">
-        <v>0.03713729241509874</v>
-      </c>
-      <c r="Q19">
-        <v>0.9815492023727402</v>
-      </c>
-      <c r="R19">
-        <v>0.9815492023727402</v>
-      </c>
-      <c r="S19">
-        <v>0.005479129493696739</v>
-      </c>
-      <c r="T19">
-        <v>0.005479129493696739</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H28">
+        <v>2.171381</v>
+      </c>
+      <c r="I28">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J28">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.28669</v>
+      </c>
+      <c r="N28">
+        <v>9.86007</v>
+      </c>
+      <c r="O28">
+        <v>0.07797047366109675</v>
+      </c>
+      <c r="P28">
+        <v>0.07797047366109675</v>
+      </c>
+      <c r="Q28">
+        <v>2.378885406296667</v>
+      </c>
+      <c r="R28">
+        <v>21.40996865667</v>
+      </c>
+      <c r="S28">
+        <v>0.01163216357817698</v>
+      </c>
+      <c r="T28">
+        <v>0.01163216357817698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H29">
+        <v>2.171381</v>
+      </c>
+      <c r="I29">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J29">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.278769333333333</v>
+      </c>
+      <c r="N29">
+        <v>15.836308</v>
+      </c>
+      <c r="O29">
+        <v>0.1252287697554901</v>
+      </c>
+      <c r="P29">
+        <v>0.1252287697554901</v>
+      </c>
+      <c r="Q29">
+        <v>3.820739811260889</v>
+      </c>
+      <c r="R29">
+        <v>34.386658301348</v>
+      </c>
+      <c r="S29">
+        <v>0.01868247640537975</v>
+      </c>
+      <c r="T29">
+        <v>0.01868247640537975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H30">
+        <v>2.171381</v>
+      </c>
+      <c r="I30">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J30">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.06676</v>
+      </c>
+      <c r="N30">
+        <v>9.200279999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.07275305240375728</v>
+      </c>
+      <c r="P30">
+        <v>0.07275305240375728</v>
+      </c>
+      <c r="Q30">
+        <v>2.219701465186667</v>
+      </c>
+      <c r="R30">
+        <v>19.97731318668</v>
+      </c>
+      <c r="S30">
+        <v>0.01085379332246425</v>
+      </c>
+      <c r="T30">
+        <v>0.01085379332246425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H31">
+        <v>2.171381</v>
+      </c>
+      <c r="I31">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J31">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.722250333333333</v>
+      </c>
+      <c r="N31">
+        <v>5.166751000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.04085711589866454</v>
+      </c>
+      <c r="P31">
+        <v>0.04085711589866454</v>
+      </c>
+      <c r="Q31">
+        <v>1.246553883681222</v>
+      </c>
+      <c r="R31">
+        <v>11.218984953131</v>
+      </c>
+      <c r="S31">
+        <v>0.006095341392070189</v>
+      </c>
+      <c r="T31">
+        <v>0.006095341392070189</v>
       </c>
     </row>
   </sheetData>
